--- a/Data/RawData/YPE_Data/YPE_32/Digital Data_YPE32/YPE_PILAdata_Plot_32.xlsx
+++ b/Data/RawData/YPE_Data/YPE_32/Digital Data_YPE32/YPE_PILAdata_Plot_32.xlsx
@@ -1168,16 +1168,12 @@
       <c r="AI4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="3">
-        <v>-19.6</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>-22.0</v>
-      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
       <c r="AN4" s="3">
         <v>-19.6</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AP4" s="3">
         <v>-22.0</v>
       </c>
       <c r="AV4" s="1">
